--- a/root/packages/mpi/ballot-2023-may/StructureDefinition-ee-mpi-socialhistory-occupation.xlsx
+++ b/root/packages/mpi/ballot-2023-may/StructureDefinition-ee-mpi-socialhistory-occupation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="652">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T09:50:45+03:00</t>
+    <t>2023-05-30T18:29:05+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -775,44 +775,13 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:coding}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
-    <t>Observation.category:obscat</t>
-  </si>
-  <si>
-    <t>obscat</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="social-history"/&gt;
-    &lt;display value="Social history"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>https://fhir.ee/ValueSet/ee-observation-category</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.id</t>
-  </si>
-  <si>
     <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -825,7 +794,7 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding</t>
+    <t>open</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -847,6 +816,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -856,19 +829,35 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.id</t>
+    <t>Observation.category.coding:obscat</t>
+  </si>
+  <si>
+    <t>obscat</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+  &lt;code value="social-history"/&gt;
+  &lt;display value="Social history"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>https://fhir.ee/ValueSet/ee-observation-category</t>
+  </si>
+  <si>
+    <t>Observation.category.coding:obscat.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.extension</t>
+    <t>Observation.category.coding:obscat.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.system</t>
+    <t>Observation.category.coding:obscat.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -898,7 +887,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.version</t>
+    <t>Observation.category.coding:obscat.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -922,7 +911,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.code</t>
+    <t>Observation.category.coding:obscat.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -950,7 +939,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.display</t>
+    <t>Observation.category.coding:obscat.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -974,7 +963,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.userSelected</t>
+    <t>Observation.category.coding:obscat.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -1003,9 +992,6 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -5126,7 +5112,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -5190,14 +5176,16 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>233</v>
@@ -5218,7 +5206,7 @@
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>82</v>
@@ -5227,7 +5215,7 @@
         <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5235,14 +5223,12 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5251,10 +5237,10 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5263,26 +5249,22 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5300,11 +5282,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5322,25 +5306,25 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>82</v>
@@ -5349,7 +5333,7 @@
         <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5357,21 +5341,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5383,15 +5367,17 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5428,31 +5414,31 @@
         <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5475,18 +5461,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -5498,21 +5484,23 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5548,19 +5536,17 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AC26" t="s" s="2">
         <v>255</v>
       </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5572,7 +5558,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5584,10 +5570,10 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5595,24 +5581,26 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -5621,26 +5609,26 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
@@ -5658,13 +5646,11 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5682,7 +5668,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5706,10 +5692,10 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5717,10 +5703,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5835,10 +5821,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5908,16 +5894,16 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>190</v>
@@ -5955,10 +5941,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5984,23 +5970,23 @@
         <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -6042,7 +6028,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6066,10 +6052,10 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -6077,10 +6063,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6106,13 +6092,13 @@
         <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6162,7 +6148,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6186,10 +6172,10 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -6197,10 +6183,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6226,14 +6212,14 @@
         <v>113</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6282,7 +6268,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6291,7 +6277,7 @@
         <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>105</v>
@@ -6306,10 +6292,10 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6317,10 +6303,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6346,14 +6332,14 @@
         <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6402,7 +6388,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6411,7 +6397,7 @@
         <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>105</v>
@@ -6426,10 +6412,10 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6437,10 +6423,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6463,19 +6449,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6524,7 +6510,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6548,10 +6534,10 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6559,10 +6545,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6588,16 +6574,16 @@
         <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6646,7 +6632,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6670,10 +6656,10 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6681,14 +6667,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6710,16 +6696,16 @@
         <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6744,13 +6730,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6768,7 +6754,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>93</v>
@@ -6777,36 +6763,36 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>206</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6921,10 +6907,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6994,16 +6980,16 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>190</v>
@@ -7041,10 +7027,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7052,10 +7038,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -7067,19 +7053,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7116,17 +7102,17 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7150,10 +7136,10 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7161,13 +7147,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7189,19 +7175,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7250,7 +7236,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7274,10 +7260,10 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7285,10 +7271,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7403,10 +7389,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7476,16 +7462,16 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>190</v>
@@ -7523,10 +7509,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7552,23 +7538,23 @@
         <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -7610,7 +7596,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7634,10 +7620,10 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7645,10 +7631,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7674,13 +7660,13 @@
         <v>182</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7730,7 +7716,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7754,10 +7740,10 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7765,10 +7751,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7794,21 +7780,21 @@
         <v>113</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
@@ -7850,7 +7836,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7859,7 +7845,7 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>105</v>
@@ -7874,10 +7860,10 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7885,10 +7871,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7914,21 +7900,21 @@
         <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7970,7 +7956,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7979,7 +7965,7 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>105</v>
@@ -7994,10 +7980,10 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>82</v>
@@ -8005,10 +7991,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8031,19 +8017,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8092,7 +8078,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8116,10 +8102,10 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -8127,13 +8113,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>82</v>
@@ -8155,19 +8141,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8216,7 +8202,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8240,10 +8226,10 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -8251,10 +8237,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8369,10 +8355,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8442,16 +8428,16 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>190</v>
@@ -8489,10 +8475,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8518,23 +8504,23 @@
         <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>82</v>
@@ -8576,7 +8562,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8600,10 +8586,10 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8611,10 +8597,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8640,13 +8626,13 @@
         <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8696,7 +8682,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8720,10 +8706,10 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8731,10 +8717,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8760,21 +8746,21 @@
         <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>82</v>
@@ -8816,7 +8802,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8825,7 +8811,7 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>105</v>
@@ -8840,10 +8826,10 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8851,10 +8837,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8880,21 +8866,21 @@
         <v>182</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>82</v>
@@ -8936,7 +8922,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8945,7 +8931,7 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>105</v>
@@ -8960,10 +8946,10 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8971,10 +8957,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8997,19 +8983,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9058,7 +9044,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9082,10 +9068,10 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9093,10 +9079,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9122,16 +9108,16 @@
         <v>182</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9180,7 +9166,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9204,10 +9190,10 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
@@ -9215,10 +9201,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9241,19 +9227,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O57" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9302,7 +9288,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9317,19 +9303,19 @@
         <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>82</v>
@@ -9337,10 +9323,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9363,16 +9349,16 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9422,7 +9408,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9440,16 +9426,16 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9457,14 +9443,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9483,19 +9469,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9544,7 +9530,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9559,19 +9545,19 @@
         <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -9579,14 +9565,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9605,19 +9591,19 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9666,7 +9652,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9681,19 +9667,19 @@
         <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9701,10 +9687,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9727,16 +9713,16 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9786,7 +9772,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9804,16 +9790,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9821,10 +9807,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9847,17 +9833,17 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9906,7 +9892,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9921,19 +9907,19 @@
         <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -9941,10 +9927,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9967,19 +9953,19 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O63" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10028,7 +10014,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10037,7 +10023,7 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -10049,24 +10035,24 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10092,16 +10078,16 @@
         <v>234</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10126,13 +10112,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10150,7 +10136,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10159,7 +10145,7 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -10177,7 +10163,7 @@
         <v>138</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10185,14 +10171,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10214,16 +10200,16 @@
         <v>234</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10248,13 +10234,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10272,7 +10258,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10293,24 +10279,24 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10333,19 +10319,19 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10394,7 +10380,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10418,10 +10404,10 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>82</v>
@@ -10429,10 +10415,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10458,13 +10444,13 @@
         <v>234</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10490,13 +10476,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10514,7 +10500,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10523,7 +10509,7 @@
         <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -10535,24 +10521,24 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10575,16 +10561,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10634,7 +10620,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10643,7 +10629,7 @@
         <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>105</v>
@@ -10661,7 +10647,7 @@
         <v>82</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>82</v>
@@ -10669,10 +10655,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10698,16 +10684,16 @@
         <v>234</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10732,13 +10718,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10756,7 +10742,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10780,10 +10766,10 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10791,10 +10777,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10817,16 +10803,16 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10876,7 +10862,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10888,33 +10874,33 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10937,16 +10923,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10996,7 +10982,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11017,24 +11003,24 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11060,16 +11046,16 @@
         <v>178</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11118,7 +11104,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11130,7 +11116,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11142,10 +11128,10 @@
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>82</v>
@@ -11153,10 +11139,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11271,10 +11257,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11391,10 +11377,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11513,10 +11499,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11539,13 +11525,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11596,7 +11582,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11605,7 +11591,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11620,10 +11606,10 @@
         <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11631,10 +11617,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11657,13 +11643,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11714,7 +11700,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11723,7 +11709,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11738,10 +11724,10 @@
         <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11749,10 +11735,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11778,10 +11764,10 @@
         <v>234</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11808,13 +11794,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11832,7 +11818,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11856,10 +11842,10 @@
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11867,10 +11853,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11896,16 +11882,16 @@
         <v>234</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11933,10 +11919,10 @@
         <v>239</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11954,7 +11940,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11975,13 +11961,13 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11989,10 +11975,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12018,16 +12004,16 @@
         <v>234</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12052,13 +12038,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12076,7 +12062,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12097,13 +12083,13 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -12111,10 +12097,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12137,17 +12123,17 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12196,7 +12182,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12223,7 +12209,7 @@
         <v>82</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12231,10 +12217,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12257,13 +12243,13 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12314,7 +12300,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12323,7 +12309,7 @@
         <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12338,10 +12324,10 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>82</v>
@@ -12349,10 +12335,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12375,16 +12361,16 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12434,7 +12420,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12458,7 +12444,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>200</v>
@@ -12469,10 +12455,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12495,16 +12481,16 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12554,7 +12540,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12578,10 +12564,10 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>82</v>
@@ -12589,10 +12575,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12603,7 +12589,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>94</v>
@@ -12618,16 +12604,16 @@
         <v>178</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12664,19 +12650,19 @@
         <v>82</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12685,7 +12671,7 @@
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>105</v>
@@ -12700,10 +12686,10 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>82</v>
@@ -12711,10 +12697,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12829,10 +12815,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12949,10 +12935,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13071,10 +13057,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13100,16 +13086,16 @@
         <v>234</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13134,13 +13120,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -13158,7 +13144,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>93</v>
@@ -13167,7 +13153,7 @@
         <v>93</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13176,13 +13162,13 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>206</v>
@@ -13193,10 +13179,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13219,19 +13205,19 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13280,7 +13266,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13301,24 +13287,24 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13344,16 +13330,16 @@
         <v>234</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13378,13 +13364,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13402,7 +13388,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13429,7 +13415,7 @@
         <v>138</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13437,14 +13423,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13466,16 +13452,16 @@
         <v>234</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13500,13 +13486,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13524,7 +13510,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13545,24 +13531,24 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13588,16 +13574,16 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13646,7 +13632,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13670,10 +13656,10 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13681,13 +13667,13 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>82</v>
@@ -13712,16 +13698,16 @@
         <v>178</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13770,7 +13756,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13779,7 +13765,7 @@
         <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13794,10 +13780,10 @@
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>82</v>
@@ -13805,10 +13791,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13923,10 +13909,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14043,10 +14029,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14165,10 +14151,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14194,16 +14180,16 @@
         <v>234</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14213,7 +14199,7 @@
         <v>82</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>82</v>
@@ -14228,13 +14214,13 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -14252,7 +14238,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>93</v>
@@ -14261,7 +14247,7 @@
         <v>93</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>105</v>
@@ -14270,13 +14256,13 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>206</v>
@@ -14287,10 +14273,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14316,16 +14302,16 @@
         <v>234</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14362,17 +14348,17 @@
         <v>82</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AC99" s="2"/>
       <c r="AD99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14393,27 +14379,27 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>82</v>
@@ -14438,16 +14424,16 @@
         <v>234</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14476,7 +14462,7 @@
       </c>
       <c r="Y100" s="2"/>
       <c r="Z100" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14494,7 +14480,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14515,24 +14501,24 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14558,16 +14544,16 @@
         <v>234</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14592,13 +14578,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14616,7 +14602,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14643,7 +14629,7 @@
         <v>138</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14651,14 +14637,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14680,16 +14666,16 @@
         <v>234</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14714,13 +14700,13 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14738,7 +14724,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14759,24 +14745,24 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14802,16 +14788,16 @@
         <v>83</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14860,7 +14846,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14884,10 +14870,10 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14895,13 +14881,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>82</v>
@@ -14926,16 +14912,16 @@
         <v>178</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14984,7 +14970,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14993,7 +14979,7 @@
         <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>105</v>
@@ -15008,10 +14994,10 @@
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15019,10 +15005,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15137,10 +15123,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15257,10 +15243,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15379,10 +15365,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15408,16 +15394,16 @@
         <v>234</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15427,7 +15413,7 @@
         <v>82</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>82</v>
@@ -15442,13 +15428,13 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15466,7 +15452,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>93</v>
@@ -15475,7 +15461,7 @@
         <v>93</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15484,13 +15470,13 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>206</v>
@@ -15501,10 +15487,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15530,16 +15516,16 @@
         <v>234</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15576,17 +15562,17 @@
         <v>82</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AC109" s="2"/>
       <c r="AD109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15607,27 +15593,27 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>82</v>
@@ -15652,16 +15638,16 @@
         <v>234</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15690,7 +15676,7 @@
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15708,7 +15694,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15729,24 +15715,24 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15772,16 +15758,16 @@
         <v>234</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15806,13 +15792,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15830,7 +15816,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15857,7 +15843,7 @@
         <v>138</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>82</v>
@@ -15865,14 +15851,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15894,16 +15880,16 @@
         <v>234</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15928,13 +15914,13 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15952,7 +15938,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15973,24 +15959,24 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16016,16 +16002,16 @@
         <v>83</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16074,7 +16060,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16098,10 +16084,10 @@
         <v>82</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16109,13 +16095,13 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>82</v>
@@ -16140,16 +16126,16 @@
         <v>178</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16198,7 +16184,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16207,7 +16193,7 @@
         <v>81</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>105</v>
@@ -16222,10 +16208,10 @@
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16233,10 +16219,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16351,10 +16337,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16471,10 +16457,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16593,10 +16579,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16622,16 +16608,16 @@
         <v>234</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16641,7 +16627,7 @@
         <v>82</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>82</v>
@@ -16656,13 +16642,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16680,7 +16666,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>93</v>
@@ -16689,7 +16675,7 @@
         <v>93</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>105</v>
@@ -16698,13 +16684,13 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>206</v>
@@ -16715,10 +16701,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16744,16 +16730,16 @@
         <v>234</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16790,17 +16776,17 @@
         <v>82</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AC119" s="2"/>
       <c r="AD119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16821,27 +16807,27 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>82</v>
@@ -16866,16 +16852,16 @@
         <v>234</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -16904,7 +16890,7 @@
       </c>
       <c r="Y120" s="2"/>
       <c r="Z120" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -16922,7 +16908,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16943,24 +16929,24 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16986,16 +16972,16 @@
         <v>234</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17020,13 +17006,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17044,7 +17030,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17071,7 +17057,7 @@
         <v>138</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17079,14 +17065,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17108,16 +17094,16 @@
         <v>234</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17142,13 +17128,13 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -17166,7 +17152,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17187,24 +17173,24 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17230,16 +17216,16 @@
         <v>83</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17288,7 +17274,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17312,10 +17298,10 @@
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>82</v>
